--- a/mbs-perturbation/bottleneck/elm/smote/bottleneck_elm_tanh_smote_results.xlsx
+++ b/mbs-perturbation/bottleneck/elm/smote/bottleneck_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5169082125603864</v>
+        <v>0.4883116883116883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9953488372093023</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6804451510333862</v>
+        <v>0.6561954624781851</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5577393185505679</v>
+        <v>0.5246305418719212</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5058823529411764</v>
+        <v>0.5103626943005182</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.671875</v>
+        <v>0.6758147512864494</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5003677663601946</v>
+        <v>0.5257731958762887</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4950980392156863</v>
+        <v>0.5052356020942408</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9901960784313726</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6601307189542485</v>
+        <v>0.6713043478260869</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5348559777893457</v>
+        <v>0.5328282828282828</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5119617224880383</v>
+        <v>0.5104712041884817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9907407407407407</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6750788643533122</v>
+        <v>0.6759098786828424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.546912859120803</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5653266331658291</v>
+        <v>0.5284974093264249</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7223113964686998</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5847479674796748</v>
+        <v>0.5510752688172043</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5190353920742232</v>
+        <v>0.5085757196442707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9952571312762831</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6819682261619293</v>
+        <v>0.6741499728004754</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5449247778601172</v>
+        <v>0.5411471721644536</v>
       </c>
     </row>
   </sheetData>
